--- a/Shiny/Dati/Loukas_2001_pb12.xlsx
+++ b/Shiny/Dati/Loukas_2001_pb12.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Camillo\Google_Drive\01_MeTanalisi\Giorgio\Master Bonferoni - 2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DoE\Shiny\Dati\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F5BF08A-C2F7-4D8E-A4EB-A304487F3E8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B135A14B-F4CE-40FE-9A9F-04595A479FE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{75C8D013-4F67-4507-AF45-AC4884EFC224}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{75C8D013-4F67-4507-AF45-AC4884EFC224}"/>
   </bookViews>
   <sheets>
     <sheet name="Loukas 2001 PB12" sheetId="1" r:id="rId1"/>
+    <sheet name="Costruzione" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="33">
   <si>
     <t>x1</t>
   </si>
@@ -377,7 +378,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normale 2" xfId="1" xr:uid="{3C8998E7-83AA-4480-8DB6-91432CD5DF86}"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -393,8 +394,90 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A6BABB6-BCCC-807D-D4E8-344E113C0B5B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="371475" y="2847975"/>
+          <a:ext cx="9124950" cy="542925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="it-IT"/>
+            <a:t>Yannis L. Loukas, A Plackett–Burman screening design directs the efficient formulation of multicomponent DRV liposomes.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="it-IT"/>
+            <a:t>Journal of Pharmaceutical and Biomedical Analysis 26 (2001) 255–263.</a:t>
+          </a:r>
+          <a:endParaRPr lang="it-IT" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -690,24 +773,538 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E55744DE-EE9D-42B5-8198-11ED4A1CC61E}">
+  <dimension ref="A1:M13"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="11" width="8.85546875" style="8"/>
+    <col min="12" max="12" width="18.28515625" style="8" customWidth="1"/>
+    <col min="13" max="13" width="8.85546875" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="9">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10">
+        <v>1</v>
+      </c>
+      <c r="C2" s="10">
+        <v>-1</v>
+      </c>
+      <c r="D2" s="10">
+        <v>1</v>
+      </c>
+      <c r="E2" s="10">
+        <v>1</v>
+      </c>
+      <c r="F2" s="10">
+        <v>1</v>
+      </c>
+      <c r="G2" s="10">
+        <v>-1</v>
+      </c>
+      <c r="H2" s="10">
+        <v>-1</v>
+      </c>
+      <c r="I2" s="10">
+        <v>-1</v>
+      </c>
+      <c r="J2" s="10">
+        <v>1</v>
+      </c>
+      <c r="K2" s="11">
+        <v>-1</v>
+      </c>
+      <c r="L2" s="14">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="9">
+        <v>-1</v>
+      </c>
+      <c r="B3" s="10">
+        <v>1</v>
+      </c>
+      <c r="C3" s="10">
+        <v>1</v>
+      </c>
+      <c r="D3" s="10">
+        <v>-1</v>
+      </c>
+      <c r="E3" s="10">
+        <v>1</v>
+      </c>
+      <c r="F3" s="10">
+        <v>1</v>
+      </c>
+      <c r="G3" s="10">
+        <v>1</v>
+      </c>
+      <c r="H3" s="10">
+        <v>-1</v>
+      </c>
+      <c r="I3" s="10">
+        <v>-1</v>
+      </c>
+      <c r="J3" s="10">
+        <v>-1</v>
+      </c>
+      <c r="K3" s="11">
+        <v>1</v>
+      </c>
+      <c r="L3" s="14">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
+        <v>1</v>
+      </c>
+      <c r="B4" s="10">
+        <v>-1</v>
+      </c>
+      <c r="C4" s="10">
+        <v>1</v>
+      </c>
+      <c r="D4" s="10">
+        <v>1</v>
+      </c>
+      <c r="E4" s="10">
+        <v>-1</v>
+      </c>
+      <c r="F4" s="10">
+        <v>1</v>
+      </c>
+      <c r="G4" s="10">
+        <v>1</v>
+      </c>
+      <c r="H4" s="10">
+        <v>1</v>
+      </c>
+      <c r="I4" s="10">
+        <v>-1</v>
+      </c>
+      <c r="J4" s="10">
+        <v>-1</v>
+      </c>
+      <c r="K4" s="11">
+        <v>-1</v>
+      </c>
+      <c r="L4" s="14">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
+        <v>-1</v>
+      </c>
+      <c r="B5" s="10">
+        <v>1</v>
+      </c>
+      <c r="C5" s="10">
+        <v>-1</v>
+      </c>
+      <c r="D5" s="10">
+        <v>1</v>
+      </c>
+      <c r="E5" s="10">
+        <v>1</v>
+      </c>
+      <c r="F5" s="10">
+        <v>-1</v>
+      </c>
+      <c r="G5" s="10">
+        <v>1</v>
+      </c>
+      <c r="H5" s="10">
+        <v>1</v>
+      </c>
+      <c r="I5" s="10">
+        <v>1</v>
+      </c>
+      <c r="J5" s="10">
+        <v>-1</v>
+      </c>
+      <c r="K5" s="11">
+        <v>-1</v>
+      </c>
+      <c r="L5" s="14">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
+        <v>-1</v>
+      </c>
+      <c r="B6" s="10">
+        <v>-1</v>
+      </c>
+      <c r="C6" s="10">
+        <v>1</v>
+      </c>
+      <c r="D6" s="10">
+        <v>-1</v>
+      </c>
+      <c r="E6" s="10">
+        <v>1</v>
+      </c>
+      <c r="F6" s="10">
+        <v>1</v>
+      </c>
+      <c r="G6" s="10">
+        <v>-1</v>
+      </c>
+      <c r="H6" s="10">
+        <v>1</v>
+      </c>
+      <c r="I6" s="10">
+        <v>1</v>
+      </c>
+      <c r="J6" s="10">
+        <v>1</v>
+      </c>
+      <c r="K6" s="11">
+        <v>-1</v>
+      </c>
+      <c r="L6" s="14">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
+        <v>-1</v>
+      </c>
+      <c r="B7" s="10">
+        <v>-1</v>
+      </c>
+      <c r="C7" s="10">
+        <v>-1</v>
+      </c>
+      <c r="D7" s="10">
+        <v>1</v>
+      </c>
+      <c r="E7" s="10">
+        <v>-1</v>
+      </c>
+      <c r="F7" s="10">
+        <v>1</v>
+      </c>
+      <c r="G7" s="10">
+        <v>1</v>
+      </c>
+      <c r="H7" s="10">
+        <v>-1</v>
+      </c>
+      <c r="I7" s="10">
+        <v>1</v>
+      </c>
+      <c r="J7" s="10">
+        <v>1</v>
+      </c>
+      <c r="K7" s="11">
+        <v>1</v>
+      </c>
+      <c r="L7" s="14">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
+        <v>1</v>
+      </c>
+      <c r="B8" s="10">
+        <v>-1</v>
+      </c>
+      <c r="C8" s="10">
+        <v>-1</v>
+      </c>
+      <c r="D8" s="10">
+        <v>-1</v>
+      </c>
+      <c r="E8" s="10">
+        <v>1</v>
+      </c>
+      <c r="F8" s="10">
+        <v>-1</v>
+      </c>
+      <c r="G8" s="10">
+        <v>1</v>
+      </c>
+      <c r="H8" s="10">
+        <v>1</v>
+      </c>
+      <c r="I8" s="10">
+        <v>-1</v>
+      </c>
+      <c r="J8" s="10">
+        <v>1</v>
+      </c>
+      <c r="K8" s="11">
+        <v>1</v>
+      </c>
+      <c r="L8" s="14">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
+        <v>1</v>
+      </c>
+      <c r="B9" s="10">
+        <v>1</v>
+      </c>
+      <c r="C9" s="10">
+        <v>-1</v>
+      </c>
+      <c r="D9" s="10">
+        <v>-1</v>
+      </c>
+      <c r="E9" s="10">
+        <v>-1</v>
+      </c>
+      <c r="F9" s="10">
+        <v>1</v>
+      </c>
+      <c r="G9" s="10">
+        <v>-1</v>
+      </c>
+      <c r="H9" s="10">
+        <v>1</v>
+      </c>
+      <c r="I9" s="10">
+        <v>1</v>
+      </c>
+      <c r="J9" s="10">
+        <v>-1</v>
+      </c>
+      <c r="K9" s="11">
+        <v>1</v>
+      </c>
+      <c r="L9" s="14">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
+        <v>1</v>
+      </c>
+      <c r="B10" s="10">
+        <v>1</v>
+      </c>
+      <c r="C10" s="10">
+        <v>1</v>
+      </c>
+      <c r="D10" s="10">
+        <v>-1</v>
+      </c>
+      <c r="E10" s="10">
+        <v>-1</v>
+      </c>
+      <c r="F10" s="10">
+        <v>-1</v>
+      </c>
+      <c r="G10" s="10">
+        <v>1</v>
+      </c>
+      <c r="H10" s="10">
+        <v>-1</v>
+      </c>
+      <c r="I10" s="10">
+        <v>1</v>
+      </c>
+      <c r="J10" s="10">
+        <v>1</v>
+      </c>
+      <c r="K10" s="11">
+        <v>-1</v>
+      </c>
+      <c r="L10" s="14">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
+        <v>-1</v>
+      </c>
+      <c r="B11" s="10">
+        <v>1</v>
+      </c>
+      <c r="C11" s="10">
+        <v>1</v>
+      </c>
+      <c r="D11" s="10">
+        <v>1</v>
+      </c>
+      <c r="E11" s="10">
+        <v>-1</v>
+      </c>
+      <c r="F11" s="10">
+        <v>-1</v>
+      </c>
+      <c r="G11" s="10">
+        <v>-1</v>
+      </c>
+      <c r="H11" s="10">
+        <v>1</v>
+      </c>
+      <c r="I11" s="10">
+        <v>-1</v>
+      </c>
+      <c r="J11" s="10">
+        <v>1</v>
+      </c>
+      <c r="K11" s="11">
+        <v>1</v>
+      </c>
+      <c r="L11" s="14">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="9">
+        <v>1</v>
+      </c>
+      <c r="B12" s="10">
+        <v>-1</v>
+      </c>
+      <c r="C12" s="10">
+        <v>1</v>
+      </c>
+      <c r="D12" s="10">
+        <v>1</v>
+      </c>
+      <c r="E12" s="10">
+        <v>1</v>
+      </c>
+      <c r="F12" s="10">
+        <v>-1</v>
+      </c>
+      <c r="G12" s="10">
+        <v>-1</v>
+      </c>
+      <c r="H12" s="10">
+        <v>-1</v>
+      </c>
+      <c r="I12" s="10">
+        <v>1</v>
+      </c>
+      <c r="J12" s="10">
+        <v>-1</v>
+      </c>
+      <c r="K12" s="11">
+        <v>1</v>
+      </c>
+      <c r="L12" s="14">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="15">
+        <v>-1</v>
+      </c>
+      <c r="B13" s="16">
+        <v>-1</v>
+      </c>
+      <c r="C13" s="16">
+        <v>-1</v>
+      </c>
+      <c r="D13" s="16">
+        <v>-1</v>
+      </c>
+      <c r="E13" s="16">
+        <v>-1</v>
+      </c>
+      <c r="F13" s="16">
+        <v>-1</v>
+      </c>
+      <c r="G13" s="16">
+        <v>-1</v>
+      </c>
+      <c r="H13" s="16">
+        <v>-1</v>
+      </c>
+      <c r="I13" s="16">
+        <v>-1</v>
+      </c>
+      <c r="J13" s="16">
+        <v>-1</v>
+      </c>
+      <c r="K13" s="17">
+        <v>-1</v>
+      </c>
+      <c r="L13" s="21">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48143E80-90B6-4E0A-BB06-75BD76DA8C18}">
   <dimension ref="A1:X13"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="U28" sqref="U28"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="11" width="8.88671875" style="8"/>
-    <col min="12" max="19" width="13.6640625" style="8" customWidth="1"/>
+    <col min="1" max="11" width="9.140625" style="8"/>
+    <col min="12" max="19" width="13.7109375" style="8" customWidth="1"/>
     <col min="20" max="20" width="11" style="8" customWidth="1"/>
-    <col min="21" max="21" width="14.88671875" style="8" customWidth="1"/>
-    <col min="22" max="22" width="16.33203125" style="8" customWidth="1"/>
-    <col min="23" max="23" width="18.33203125" style="8" customWidth="1"/>
-    <col min="24" max="24" width="8.88671875" style="8"/>
+    <col min="21" max="21" width="14.85546875" style="8" customWidth="1"/>
+    <col min="22" max="22" width="16.28515625" style="8" customWidth="1"/>
+    <col min="23" max="23" width="18.28515625" style="8" customWidth="1"/>
+    <col min="24" max="24" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -778,7 +1375,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -849,7 +1446,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <v>-1</v>
       </c>
@@ -920,7 +1517,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>1</v>
       </c>
@@ -991,7 +1588,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>-1</v>
       </c>
@@ -1062,7 +1659,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>-1</v>
       </c>
@@ -1133,7 +1730,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>-1</v>
       </c>
@@ -1204,7 +1801,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>1</v>
       </c>
@@ -1275,7 +1872,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>1</v>
       </c>
@@ -1346,7 +1943,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>1</v>
       </c>
@@ -1417,7 +2014,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <v>-1</v>
       </c>
@@ -1488,7 +2085,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <v>1</v>
       </c>
@@ -1559,7 +2156,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="15">
         <v>-1</v>
       </c>
@@ -1632,5 +2229,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>